--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.318000000000001</v>
+        <v>-7.903</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.837999999999999</v>
+        <v>-7.763</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.304</v>
+        <v>-13.566</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.958</v>
+        <v>7.086999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>6.184</v>
+        <v>5.840000000000001</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.97</v>
+        <v>16.694</v>
       </c>
     </row>
     <row r="11">
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.467999999999999</v>
+        <v>-7.409000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.318</v>
+        <v>5.691000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.204</v>
+        <v>17.221</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.208</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.636</v>
+        <v>-13.457</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.478</v>
+        <v>-8.202</v>
       </c>
       <c r="E14" t="n">
-        <v>15.992</v>
+        <v>16.558</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.352</v>
+        <v>-13.745</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -737,13 +737,13 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.07</v>
+        <v>5.609</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.044</v>
+        <v>-13.483</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.366</v>
+        <v>-8.797000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.916</v>
+        <v>-8.255000000000001</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.866</v>
+        <v>-12.684</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.484</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.138</v>
+        <v>6.825</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.278</v>
+        <v>-8.073</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,13 +927,13 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.634</v>
+        <v>-11.893</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.848</v>
+        <v>16.808</v>
       </c>
     </row>
     <row r="30">
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.536</v>
+        <v>-12.338</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-11.096</v>
+        <v>-12.198</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.453999999999999</v>
+        <v>-7.875</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.464</v>
+        <v>16.448</v>
       </c>
     </row>
     <row r="33">
@@ -1029,13 +1029,13 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.194</v>
+        <v>-12.667</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.626</v>
+        <v>16.494</v>
       </c>
     </row>
     <row r="36">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.878</v>
+        <v>8.416</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.018000000000001</v>
+        <v>-7.892</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.988</v>
+        <v>-12.782</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-9.008000000000001</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.042</v>
+        <v>16.937</v>
       </c>
     </row>
     <row r="44">
@@ -1182,10 +1182,10 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.424</v>
+        <v>-12.395</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.796000000000001</v>
+        <v>-7.672999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.6</v>
+        <v>-7.683</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.152</v>
+        <v>17.17599999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>16.074</v>
+        <v>16.349</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.412</v>
+        <v>-12.904</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.58</v>
+        <v>16.435</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.15</v>
+        <v>16.786</v>
       </c>
     </row>
     <row r="52">
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.078</v>
+        <v>-12.448</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.816</v>
+        <v>5.845000000000001</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1389,10 +1389,10 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.141999999999999</v>
+        <v>-7.994</v>
       </c>
       <c r="E56" t="n">
-        <v>16.254</v>
+        <v>16.205</v>
       </c>
     </row>
     <row r="57">
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.494</v>
+        <v>-8.134</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.486</v>
+        <v>16.408</v>
       </c>
     </row>
     <row r="62">
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.915999999999999</v>
+        <v>-7.831</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1587,10 +1587,10 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>5.901999999999999</v>
+        <v>5.456000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.8</v>
+        <v>-11.307</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.052</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="70">
@@ -1647,7 +1647,7 @@
         <v>-7.44</v>
       </c>
       <c r="E71" t="n">
-        <v>17.432</v>
+        <v>17.208</v>
       </c>
     </row>
     <row r="72">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.714</v>
+        <v>-8.318000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.758</v>
+        <v>-13.46</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>5.78</v>
+        <v>5.144</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>6.848000000000001</v>
+        <v>7.723999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>4.98</v>
+        <v>5.545999999999999</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.488</v>
+        <v>17.523</v>
       </c>
     </row>
     <row r="80">
@@ -1791,7 +1791,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.788</v>
+        <v>8.352</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.108</v>
+        <v>5.875</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.162</v>
+        <v>16.392</v>
       </c>
     </row>
     <row r="82">
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.444</v>
+        <v>6.218000000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>6.832000000000001</v>
+        <v>6.343999999999999</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.754</v>
+        <v>-12.772</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.386</v>
+        <v>-12.696</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.860000000000001</v>
+        <v>-7.555999999999999</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1998,13 +1998,13 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.726</v>
+        <v>-11.792</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.136</v>
+        <v>-7.472</v>
       </c>
       <c r="E92" t="n">
-        <v>17.216</v>
+        <v>16.818</v>
       </c>
     </row>
     <row r="93">
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.125999999999999</v>
+        <v>-6.953999999999999</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.57</v>
+        <v>-7.806</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.89</v>
+        <v>-12.705</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.16</v>
+        <v>-13.649</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2148,13 +2148,13 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>8.428000000000001</v>
+        <v>8.975</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.052</v>
+        <v>-13.022</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.888</v>
+        <v>-7.784000000000001</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.232000000000001</v>
+        <v>7.468000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.31</v>
+        <v>-12.906</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
